--- a/Doku/Preiskalkulation.xlsx
+++ b/Doku/Preiskalkulation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BES-S-Profiles.bes-s.cbbe.tech\Home\Tom.Smajli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD48AF7-4C62-4FBB-996E-F71C38B4747A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAED5A52-92DB-49B7-9251-86BACE8F7ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>%-Satz</t>
   </si>
@@ -84,9 +81,6 @@
     <t>Berechnung</t>
   </si>
   <si>
-    <t>500€ / 12</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>Gesamtpersonalkosten + Gesamtmaterialkosten + Sonstige Kosten</t>
   </si>
   <si>
-    <t>(Einzelkosten/h * 100 Stunden) + (Kundeneinweisung + Einarbeitung)</t>
-  </si>
-  <si>
     <t>Kalkulierter Gewinnaufschlag für das Projekt</t>
   </si>
   <si>
@@ -159,7 +150,28 @@
     <t>Allgemeine Betriebskosten (z. B. Arbeitsplatz, Strom, Infrastruktur)</t>
   </si>
   <si>
-    <t>Einarbeitung in das Projektumfeld, Technologien, Frameworks</t>
+    <t>Mitarrbeiter Einarbeitung in das Projektumfeld, Technologien, Frameworks 1h</t>
+  </si>
+  <si>
+    <t>Lenovo Thinkbook</t>
+  </si>
+  <si>
+    <t>530€ / 12</t>
+  </si>
+  <si>
+    <t>QT Lizenz</t>
+  </si>
+  <si>
+    <t>Quellen</t>
+  </si>
+  <si>
+    <t>Monatsleasing 20€</t>
+  </si>
+  <si>
+    <t>Personalkosten Mitarbeiter / Stunde</t>
+  </si>
+  <si>
+    <t>(Personalkosten/h * 3 Mitarbeiter * 100 Stunden) + (Kundeneinweisung + Einarbeitung)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +184,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -230,6 +242,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -268,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,15 +316,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -314,19 +350,18 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -350,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,65 +398,52 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,9 +465,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -483,9 +505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,26 +540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +575,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,462 +751,511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="58" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="71.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
         <v>50</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <f>C5*D5</f>
-        <v>50</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
         <v>35</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E21" si="0">C6*D6</f>
+      <c r="E6" s="9">
+        <f t="shared" ref="E6:E7" si="0">C6*D6</f>
         <v>105</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="F6" s="5"/>
+      <c r="G6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="38">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
         <v>35</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="42">
+      <c r="F7" s="5"/>
+      <c r="G7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="37">
+        <f>(B9+B10+B11+B12+B13)</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C8" s="38">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <f>(D9+D10+D11+D12+D13)</f>
+        <v>7.419999999999999</v>
+      </c>
+      <c r="E8" s="9">
+        <f>C8*D8</f>
+        <v>22.259999999999998</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="37">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C8" s="43">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C9" s="38">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
         <f>D6*0.093</f>
         <v>3.2549999999999999</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
+      <c r="E9" s="9">
+        <f>C9*D9</f>
         <v>9.7650000000000006</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="F9" s="5"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C9" s="43">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C10" s="38">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
         <f>D6*0.015</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
+      <c r="E10" s="9">
+        <f>C10*D10</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="42">
+      <c r="F10" s="5"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C10" s="43">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C11" s="38">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <f>D6*0.073</f>
         <v>2.5549999999999997</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
+      <c r="E11" s="9">
+        <f>C11*D11</f>
         <v>7.6649999999999991</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="42">
+      <c r="F11" s="5"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="37">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C11" s="43">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C12" s="38">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
         <f>D6*0.018</f>
         <v>0.63</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
+      <c r="E12" s="9">
+        <f>C12*D12</f>
         <v>1.8900000000000001</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="42">
+      <c r="F12" s="5"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="37">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C12" s="43">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="38">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
         <f>D6*0.013</f>
         <v>0.45499999999999996</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
+      <c r="E13" s="9">
+        <f>C13*D13</f>
         <v>1.3649999999999998</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="46">
-        <f>(B8+B9+B10+B11+B12)</f>
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="C13" s="43">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9">
-        <f>(D8+D9+D10+D11+D12)</f>
-        <v>7.419999999999999</v>
-      </c>
-      <c r="E13" s="11">
-        <f>C13*D13</f>
-        <v>22.259999999999998</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="43">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
         <v>3.3</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f>C14*D14</f>
         <v>9.8999999999999986</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="43">
+      <c r="F14" s="5"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="38">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>70</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <f>C15*D15</f>
         <v>70</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="11">
+        <f>D5+D6+D8+D14</f>
+        <v>95.72</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29">
+        <f>(E5+E6+E14+E8)*100+E15+E7</f>
+        <v>28890.999999999996</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="41">
+        <f>530 / 12</f>
+        <v>44.166666666666664</v>
+      </c>
+      <c r="E20" s="9">
+        <f>C20*D20</f>
+        <v>44.166666666666664</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31">
-        <f>(E5+E6+E14)*100+E15+E7</f>
-        <v>16665</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="47">
-        <v>1</v>
-      </c>
-      <c r="D19" s="48">
-        <f>500 / 12</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="E19" s="11">
-        <f>C19*D19</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="H20" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="14">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>50</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9">
+        <f>C21*D21</f>
+        <v>60</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="14">
-        <v>3</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
         <v>100</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
+      <c r="E22" s="9">
+        <f>C22*D22</f>
         <v>300</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26">
-        <f>E19+E20+E21</f>
-        <v>491.66666666666663</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24">
+        <f>E20+E21+E22</f>
+        <v>404.16666666666663</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="47">
-        <v>3</v>
-      </c>
-      <c r="D25" s="48">
+      <c r="B26" s="4"/>
+      <c r="C26" s="12">
+        <v>3</v>
+      </c>
+      <c r="D26" s="41">
         <f>70</f>
         <v>70</v>
       </c>
-      <c r="E25" s="11">
-        <f>C25*D25</f>
+      <c r="E26" s="9">
+        <f>C26*D26</f>
         <v>210</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="31">
-        <f>E25</f>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="29">
+        <f>E26</f>
         <v>210</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="34" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37">
-        <f>E22+E16+E26</f>
-        <v>17366.666666666668</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32">
+        <f>E23+E17+E27</f>
+        <v>29505.166666666664</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1" display="Quelle" xr:uid="{4D088C7F-27E5-411A-92F0-BDC0A0221AAA}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{0970640A-5939-4BAE-8247-96D3050395FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>